--- a/data/outputs/OR_elsevier/5.xlsx
+++ b/data/outputs/OR_elsevier/5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS95"/>
+  <dimension ref="A1:BU95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +923,12 @@
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1120,6 +1136,12 @@
           <t>2-s2.0-84948379509</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1365,12 @@
           <t>2-s2.0-84948383207</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1562,6 +1590,12 @@
           <t>2-s2.0-84948380676</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1777,6 +1811,12 @@
           <t>2-s2.0-84948383590</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1996,6 +2036,12 @@
           <t>2-s2.0-84948385384</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2215,6 +2261,12 @@
           <t>2-s2.0-84948383952</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2442,6 +2494,12 @@
           <t>2-s2.0-84948386879</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2661,6 +2719,12 @@
           <t>2-s2.0-84948382508</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2876,6 +2940,12 @@
           <t>2-s2.0-84948388260</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3095,6 +3165,12 @@
           <t>2-s2.0-84943661264</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3314,6 +3390,12 @@
           <t>2-s2.0-84943661213</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3537,6 +3619,12 @@
           <t>2-s2.0-84943665888</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3752,6 +3840,12 @@
           <t>2-s2.0-84943665712</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3971,6 +4065,12 @@
           <t>2-s2.0-84943665873</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4188,6 +4288,12 @@
           <t>2-s2.0-84943664926</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4403,6 +4509,12 @@
           <t>2-s2.0-84943658398</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4630,6 +4742,12 @@
           <t>2-s2.0-84943659156</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4853,6 +4971,12 @@
           <t>2-s2.0-84943664039</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5075,6 +5199,12 @@
         <is>
           <t>2-s2.0-84943665518</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5287,6 +5417,12 @@
           <t>2-s2.0-84939654698</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5526,6 +5662,12 @@
           <t>2-s2.0-84939565944</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5757,6 +5899,12 @@
           <t>2-s2.0-84939571613</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5988,6 +6136,12 @@
           <t>2-s2.0-84939571379</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6215,6 +6369,12 @@
           <t>2-s2.0-84939576174</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6454,6 +6614,12 @@
           <t>2-s2.0-84939568407</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6689,6 +6855,12 @@
           <t>2-s2.0-84939566651</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6920,6 +7092,12 @@
           <t>2-s2.0-84939564664</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7159,6 +7337,12 @@
           <t>2-s2.0-84939569484</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7390,6 +7574,12 @@
           <t>2-s2.0-84939563857</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7627,6 +7817,12 @@
           <t>2-s2.0-84939565738</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7858,6 +8054,12 @@
           <t>2-s2.0-84939566166</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8096,6 +8298,12 @@
         <is>
           <t>2-s2.0-85027916758</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -8311,6 +8519,12 @@
         <is>
           <t>2-s2.0-84931569180</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -8519,6 +8733,12 @@
           <t>2-s2.0-84931563706</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8739,6 +8959,12 @@
         <is>
           <t>2-s2.0-84931578331</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8947,6 +9173,12 @@
           <t>2-s2.0-84931574709</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9162,6 +9394,12 @@
           <t>2-s2.0-84931560502</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9376,6 +9614,12 @@
         <is>
           <t>2-s2.0-84931565988</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -9584,6 +9828,12 @@
           <t>2-s2.0-84931560876</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9791,6 +10041,12 @@
           <t>2-s2.0-84931571233</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9994,6 +10250,12 @@
           <t>2-s2.0-84931559923</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10209,6 +10471,12 @@
           <t>2-s2.0-84931567033</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10432,6 +10700,12 @@
           <t>2-s2.0-84929711515</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10655,6 +10929,12 @@
           <t>2-s2.0-84929702509</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10869,6 +11149,12 @@
         <is>
           <t>2-s2.0-84929711337</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -11079,6 +11365,12 @@
           <t>2-s2.0-84929712134</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11302,6 +11594,12 @@
           <t>2-s2.0-84929705683</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11517,6 +11815,12 @@
           <t>2-s2.0-84929708613</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11740,6 +12044,12 @@
           <t>2-s2.0-84929703658</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11967,6 +12277,12 @@
           <t>2-s2.0-84929712081</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12190,6 +12506,12 @@
           <t>2-s2.0-84929703232</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12401,6 +12723,12 @@
           <t>2-s2.0-84939997346</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12624,6 +12952,12 @@
           <t>2-s2.0-84939962008</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12846,6 +13180,12 @@
         <is>
           <t>2-s2.0-84939940583</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -13054,6 +13394,12 @@
           <t>2-s2.0-84939967330</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13273,6 +13619,12 @@
           <t>2-s2.0-84939978348</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13495,6 +13847,12 @@
         <is>
           <t>2-s2.0-84939882397</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -13703,6 +14061,12 @@
           <t>2-s2.0-84925869801</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13918,6 +14282,12 @@
           <t>2-s2.0-84939967762</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14133,6 +14503,12 @@
           <t>2-s2.0-84939953951</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14356,6 +14732,12 @@
           <t>2-s2.0-84939934664</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14571,6 +14953,12 @@
           <t>2-s2.0-84939934482</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14790,6 +15178,12 @@
           <t>2-s2.0-84924978910</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15001,6 +15395,12 @@
           <t>2-s2.0-85028135918</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15223,6 +15623,12 @@
         <is>
           <t>2-s2.0-84925291088</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -15431,6 +15837,12 @@
           <t>2-s2.0-84924987860</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15646,6 +16058,12 @@
           <t>2-s2.0-84924970613</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15861,6 +16279,12 @@
           <t>2-s2.0-84925289386</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16080,6 +16504,12 @@
           <t>2-s2.0-84924973698</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16295,6 +16725,12 @@
           <t>2-s2.0-84924972122</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16506,6 +16942,12 @@
           <t>2-s2.0-84925011797</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16725,6 +17167,12 @@
           <t>2-s2.0-85027958114</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16940,6 +17388,12 @@
           <t>2-s2.0-84924221867</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17163,6 +17617,12 @@
           <t>2-s2.0-84924223430</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17386,6 +17846,12 @@
           <t>2-s2.0-84924222053</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17602,6 +18068,12 @@
         <is>
           <t>2-s2.0-84924222130</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -17810,6 +18282,12 @@
           <t>2-s2.0-84924221401</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18017,6 +18495,12 @@
           <t>2-s2.0-84924222474</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18240,6 +18724,12 @@
           <t>2-s2.0-84925520104</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18463,6 +18953,12 @@
           <t>2-s2.0-84924224332</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18686,6 +19182,12 @@
           <t>2-s2.0-84924222005</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18901,6 +19403,12 @@
           <t>2-s2.0-84924224354</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19112,6 +19620,12 @@
           <t>2-s2.0-84921700035</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19331,6 +19845,12 @@
           <t>2-s2.0-84921701625</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19554,6 +20074,12 @@
           <t>2-s2.0-84921700358</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19769,6 +20295,12 @@
           <t>2-s2.0-84921700026</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19992,6 +20524,12 @@
           <t>2-s2.0-84921701248</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20215,6 +20753,12 @@
           <t>2-s2.0-84921701348</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20434,6 +20978,12 @@
           <t>2-s2.0-84921701400</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20653,6 +21203,12 @@
           <t>2-s2.0-84921700230</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20863,6 +21419,12 @@
         <is>
           <t>2-s2.0-84921699717</t>
         </is>
+      </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -21071,6 +21633,12 @@
           <t>2-s2.0-84921699996</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21282,6 +21850,12 @@
           <t>2-s2.0-84921699669</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
